--- a/Project/Database Plan.xlsx
+++ b/Project/Database Plan.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="105" windowWidth="17175" windowHeight="6150" tabRatio="257" activeTab="1"/>
@@ -12,12 +12,11 @@
     <sheet name="Sub Category" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="234">
   <si>
     <t>Gents Shopping</t>
   </si>
@@ -718,14 +717,14 @@
     <t>&lt;/div&gt;</t>
   </si>
   <si>
-    <t>repairs</t>
+    <t>services</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -771,6 +770,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -849,6 +853,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -883,6 +888,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1058,14 +1064,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16:L33"/>
+    <sheetView topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16:H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
@@ -1080,7 +1086,7 @@
     <col min="13" max="13" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>213</v>
       </c>
@@ -1088,11 +1094,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1100,7 +1106,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1108,7 +1114,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1116,7 +1122,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1124,7 +1130,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1132,7 +1138,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1140,7 +1146,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1148,7 +1154,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -1156,7 +1162,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>223</v>
       </c>
@@ -1164,10 +1170,10 @@
         <v>224</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1194,10 +1200,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>214</v>
       </c>
@@ -1241,7 +1247,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>215</v>
       </c>
@@ -1285,7 +1291,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>216</v>
       </c>
@@ -1329,7 +1335,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>217</v>
       </c>
@@ -1373,7 +1379,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>218</v>
       </c>
@@ -1417,7 +1423,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>219</v>
       </c>
@@ -1461,7 +1467,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>220</v>
       </c>
@@ -1505,7 +1511,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>221</v>
       </c>
@@ -1549,7 +1555,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>222</v>
       </c>
@@ -1593,7 +1599,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>40</v>
       </c>
@@ -1625,7 +1631,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>41</v>
       </c>
@@ -1657,7 +1663,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>42</v>
       </c>
@@ -1689,7 +1695,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>43</v>
       </c>
@@ -1715,7 +1721,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>44</v>
       </c>
@@ -1735,7 +1741,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>45</v>
       </c>
@@ -1755,7 +1761,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>46</v>
       </c>
@@ -1775,7 +1781,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>47</v>
       </c>
@@ -1795,7 +1801,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="33" spans="3:12">
+    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>48</v>
       </c>
@@ -1815,7 +1821,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="34" spans="3:12">
+    <row r="34" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>49</v>
       </c>
@@ -1829,7 +1835,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="35" spans="3:12">
+    <row r="35" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>50</v>
       </c>
@@ -1837,7 +1843,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="3:12">
+    <row r="36" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>51</v>
       </c>
@@ -1845,7 +1851,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="3:12">
+    <row r="37" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>52</v>
       </c>
@@ -1860,14 +1866,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C2:L19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H19"/>
+      <selection activeCell="C2" sqref="C2:L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
@@ -1880,7 +1886,7 @@
     <col min="11" max="11" width="4.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:12">
+    <row r="2" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>225</v>
       </c>
@@ -1891,19 +1897,19 @@
         <v>229</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
         <v>226</v>
       </c>
       <c r="H2" t="s">
-        <v>182</v>
+        <v>127</v>
       </c>
       <c r="I2" t="s">
         <v>227</v>
       </c>
       <c r="J2" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="K2" t="s">
         <v>228</v>
@@ -1912,7 +1918,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="3:12">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>225</v>
       </c>
@@ -1923,19 +1929,19 @@
         <v>229</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
         <v>226</v>
       </c>
       <c r="H3" t="s">
-        <v>183</v>
+        <v>128</v>
       </c>
       <c r="I3" t="s">
         <v>227</v>
       </c>
       <c r="J3" t="s">
-        <v>165</v>
+        <v>109</v>
       </c>
       <c r="K3" t="s">
         <v>228</v>
@@ -1944,7 +1950,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="3:12">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>225</v>
       </c>
@@ -1955,19 +1961,19 @@
         <v>229</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
         <v>226</v>
       </c>
       <c r="H4" t="s">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="I4" t="s">
         <v>227</v>
       </c>
       <c r="J4" t="s">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="K4" t="s">
         <v>228</v>
@@ -1976,7 +1982,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="3:12">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>225</v>
       </c>
@@ -1987,19 +1993,19 @@
         <v>229</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
         <v>226</v>
       </c>
       <c r="H5" t="s">
-        <v>185</v>
+        <v>130</v>
       </c>
       <c r="I5" t="s">
         <v>227</v>
       </c>
       <c r="J5" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="K5" t="s">
         <v>228</v>
@@ -2008,7 +2014,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="3:12">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>225</v>
       </c>
@@ -2019,19 +2025,19 @@
         <v>229</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
         <v>226</v>
       </c>
       <c r="H6" t="s">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="I6" t="s">
         <v>227</v>
       </c>
       <c r="J6" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="K6" t="s">
         <v>228</v>
@@ -2040,7 +2046,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="3:12">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>225</v>
       </c>
@@ -2051,19 +2057,19 @@
         <v>229</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
         <v>226</v>
       </c>
       <c r="H7" t="s">
-        <v>187</v>
+        <v>132</v>
       </c>
       <c r="I7" t="s">
         <v>227</v>
       </c>
       <c r="J7" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="K7" t="s">
         <v>228</v>
@@ -2072,7 +2078,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="8" spans="3:12">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>225</v>
       </c>
@@ -2083,19 +2089,19 @@
         <v>229</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
         <v>226</v>
       </c>
       <c r="H8" t="s">
-        <v>188</v>
+        <v>133</v>
       </c>
       <c r="I8" t="s">
         <v>227</v>
       </c>
       <c r="J8" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="K8" t="s">
         <v>228</v>
@@ -2104,7 +2110,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="3:12">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>225</v>
       </c>
@@ -2115,19 +2121,19 @@
         <v>229</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G9" t="s">
         <v>226</v>
       </c>
       <c r="H9" t="s">
-        <v>189</v>
+        <v>134</v>
       </c>
       <c r="I9" t="s">
         <v>227</v>
       </c>
       <c r="J9" t="s">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="K9" t="s">
         <v>228</v>
@@ -2136,7 +2142,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="3:12">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>225</v>
       </c>
@@ -2147,19 +2153,19 @@
         <v>229</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G10" t="s">
         <v>226</v>
       </c>
       <c r="H10" t="s">
-        <v>190</v>
+        <v>135</v>
       </c>
       <c r="I10" t="s">
         <v>227</v>
       </c>
       <c r="J10" t="s">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="K10" t="s">
         <v>228</v>
@@ -2168,7 +2174,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="11" spans="3:12">
+    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>225</v>
       </c>
@@ -2179,16 +2185,19 @@
         <v>229</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G11" t="s">
         <v>226</v>
       </c>
       <c r="H11" t="s">
-        <v>191</v>
+        <v>136</v>
+      </c>
+      <c r="I11" t="s">
+        <v>227</v>
       </c>
       <c r="J11" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="K11" t="s">
         <v>228</v>
@@ -2197,7 +2206,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="3:12">
+    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>225</v>
       </c>
@@ -2208,16 +2217,19 @@
         <v>229</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G12" t="s">
         <v>226</v>
       </c>
       <c r="H12" t="s">
-        <v>192</v>
+        <v>137</v>
+      </c>
+      <c r="I12" t="s">
+        <v>227</v>
       </c>
       <c r="J12" t="s">
-        <v>174</v>
+        <v>118</v>
       </c>
       <c r="K12" t="s">
         <v>228</v>
@@ -2226,7 +2238,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="3:12">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>225</v>
       </c>
@@ -2237,16 +2249,19 @@
         <v>229</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G13" t="s">
         <v>226</v>
       </c>
       <c r="H13" t="s">
-        <v>193</v>
+        <v>138</v>
+      </c>
+      <c r="I13" t="s">
+        <v>227</v>
       </c>
       <c r="J13" t="s">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="K13" t="s">
         <v>228</v>
@@ -2255,18 +2270,30 @@
         <v>232</v>
       </c>
     </row>
-    <row r="14" spans="3:12">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D14" t="s">
+        <v>233</v>
+      </c>
+      <c r="E14" t="s">
+        <v>229</v>
+      </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G14" t="s">
         <v>226</v>
       </c>
       <c r="H14" t="s">
-        <v>194</v>
+        <v>139</v>
+      </c>
+      <c r="I14" t="s">
+        <v>227</v>
       </c>
       <c r="J14" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="K14" t="s">
         <v>228</v>
@@ -2275,18 +2302,30 @@
         <v>232</v>
       </c>
     </row>
-    <row r="15" spans="3:12">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>225</v>
+      </c>
+      <c r="D15" t="s">
+        <v>233</v>
+      </c>
+      <c r="E15" t="s">
+        <v>229</v>
+      </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G15" t="s">
         <v>226</v>
       </c>
       <c r="H15" t="s">
-        <v>195</v>
+        <v>140</v>
+      </c>
+      <c r="I15" t="s">
+        <v>227</v>
       </c>
       <c r="J15" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="K15" t="s">
         <v>228</v>
@@ -2295,18 +2334,30 @@
         <v>232</v>
       </c>
     </row>
-    <row r="16" spans="3:12">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>225</v>
+      </c>
+      <c r="D16" t="s">
+        <v>233</v>
+      </c>
+      <c r="E16" t="s">
+        <v>229</v>
+      </c>
       <c r="F16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G16" t="s">
         <v>226</v>
       </c>
       <c r="H16" t="s">
-        <v>196</v>
+        <v>141</v>
+      </c>
+      <c r="I16" t="s">
+        <v>227</v>
       </c>
       <c r="J16" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="K16" t="s">
         <v>228</v>
@@ -2315,18 +2366,30 @@
         <v>232</v>
       </c>
     </row>
-    <row r="17" spans="6:12">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D17" t="s">
+        <v>233</v>
+      </c>
+      <c r="E17" t="s">
+        <v>229</v>
+      </c>
       <c r="F17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G17" t="s">
         <v>226</v>
       </c>
       <c r="H17" t="s">
-        <v>197</v>
+        <v>142</v>
+      </c>
+      <c r="I17" t="s">
+        <v>227</v>
       </c>
       <c r="J17" t="s">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="K17" t="s">
         <v>228</v>
@@ -2335,18 +2398,30 @@
         <v>232</v>
       </c>
     </row>
-    <row r="18" spans="6:12">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>225</v>
+      </c>
+      <c r="D18" t="s">
+        <v>233</v>
+      </c>
+      <c r="E18" t="s">
+        <v>229</v>
+      </c>
       <c r="F18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G18" t="s">
         <v>226</v>
       </c>
       <c r="H18" t="s">
-        <v>198</v>
+        <v>143</v>
+      </c>
+      <c r="I18" t="s">
+        <v>227</v>
       </c>
       <c r="J18" t="s">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="K18" t="s">
         <v>228</v>
@@ -2355,23 +2430,67 @@
         <v>232</v>
       </c>
     </row>
-    <row r="19" spans="6:12">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>225</v>
+      </c>
+      <c r="D19" t="s">
+        <v>233</v>
+      </c>
+      <c r="E19" t="s">
+        <v>229</v>
+      </c>
       <c r="F19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G19" t="s">
         <v>226</v>
       </c>
       <c r="H19" t="s">
-        <v>199</v>
+        <v>144</v>
+      </c>
+      <c r="I19" t="s">
+        <v>227</v>
       </c>
       <c r="J19" t="s">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="K19" t="s">
         <v>228</v>
       </c>
       <c r="L19" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>225</v>
+      </c>
+      <c r="D20" t="s">
+        <v>233</v>
+      </c>
+      <c r="E20" t="s">
+        <v>229</v>
+      </c>
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" t="s">
+        <v>226</v>
+      </c>
+      <c r="H20" t="s">
+        <v>145</v>
+      </c>
+      <c r="I20" t="s">
+        <v>227</v>
+      </c>
+      <c r="J20" t="s">
+        <v>126</v>
+      </c>
+      <c r="K20" t="s">
+        <v>228</v>
+      </c>
+      <c r="L20" t="s">
         <v>232</v>
       </c>
     </row>
@@ -2381,20 +2500,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:G103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="6" max="6" width="44.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7">
+    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>230</v>
       </c>
@@ -2405,13 +2524,13 @@
         <v>227</v>
       </c>
       <c r="F2" t="s">
-        <v>214</v>
+        <v>108</v>
       </c>
       <c r="G2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="3:7">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>230</v>
       </c>
@@ -2422,13 +2541,13 @@
         <v>227</v>
       </c>
       <c r="F3" t="s">
-        <v>215</v>
+        <v>109</v>
       </c>
       <c r="G3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="3:7">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>230</v>
       </c>
@@ -2439,13 +2558,13 @@
         <v>227</v>
       </c>
       <c r="F4" t="s">
-        <v>216</v>
+        <v>110</v>
       </c>
       <c r="G4" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="5" spans="3:7">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>230</v>
       </c>
@@ -2456,13 +2575,13 @@
         <v>227</v>
       </c>
       <c r="F5" t="s">
-        <v>217</v>
+        <v>111</v>
       </c>
       <c r="G5" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="3:7">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>230</v>
       </c>
@@ -2473,13 +2592,13 @@
         <v>227</v>
       </c>
       <c r="F6" t="s">
-        <v>218</v>
+        <v>112</v>
       </c>
       <c r="G6" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="7" spans="3:7">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>230</v>
       </c>
@@ -2490,13 +2609,13 @@
         <v>227</v>
       </c>
       <c r="F7" t="s">
-        <v>219</v>
+        <v>113</v>
       </c>
       <c r="G7" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="8" spans="3:7">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>230</v>
       </c>
@@ -2507,13 +2626,13 @@
         <v>227</v>
       </c>
       <c r="F8" t="s">
-        <v>220</v>
+        <v>114</v>
       </c>
       <c r="G8" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="9" spans="3:7">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>230</v>
       </c>
@@ -2524,13 +2643,13 @@
         <v>227</v>
       </c>
       <c r="F9" t="s">
-        <v>221</v>
+        <v>115</v>
       </c>
       <c r="G9" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="10" spans="3:7">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>230</v>
       </c>
@@ -2541,13 +2660,13 @@
         <v>227</v>
       </c>
       <c r="F10" t="s">
-        <v>222</v>
+        <v>116</v>
       </c>
       <c r="G10" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="11" spans="3:7">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>230</v>
       </c>
@@ -2558,13 +2677,13 @@
         <v>227</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="G11" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="12" spans="3:7">
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>230</v>
       </c>
@@ -2575,13 +2694,13 @@
         <v>227</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="G12" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="13" spans="3:7">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>230</v>
       </c>
@@ -2592,13 +2711,13 @@
         <v>227</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="G13" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="14" spans="3:7">
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>230</v>
       </c>
@@ -2609,13 +2728,13 @@
         <v>227</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="G14" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="15" spans="3:7">
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>230</v>
       </c>
@@ -2626,13 +2745,13 @@
         <v>227</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="G15" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="16" spans="3:7">
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>230</v>
       </c>
@@ -2643,13 +2762,13 @@
         <v>227</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="G16" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="17" spans="3:7">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>230</v>
       </c>
@@ -2660,13 +2779,13 @@
         <v>227</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="G17" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="18" spans="3:7">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>230</v>
       </c>
@@ -2677,13 +2796,13 @@
         <v>227</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="G18" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="19" spans="3:7">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>230</v>
       </c>
@@ -2694,13 +2813,13 @@
         <v>227</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="G19" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="20" spans="3:7">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>230</v>
       </c>
@@ -2711,13 +2830,13 @@
         <v>227</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="G20" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="21" spans="3:7">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>230</v>
       </c>
@@ -2734,7 +2853,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="22" spans="3:7">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>230</v>
       </c>
@@ -2751,7 +2870,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="23" spans="3:7">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>230</v>
       </c>
@@ -2768,7 +2887,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="24" spans="3:7">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>230</v>
       </c>
@@ -2785,7 +2904,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="25" spans="3:7">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>230</v>
       </c>
@@ -2802,7 +2921,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="26" spans="3:7">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>230</v>
       </c>
@@ -2819,7 +2938,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="27" spans="3:7">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>230</v>
       </c>
@@ -2836,7 +2955,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="28" spans="3:7">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>230</v>
       </c>
@@ -2853,7 +2972,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="29" spans="3:7">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>230</v>
       </c>
@@ -2870,7 +2989,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="30" spans="3:7">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>230</v>
       </c>
@@ -2887,7 +3006,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="31" spans="3:7">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>230</v>
       </c>
@@ -2904,7 +3023,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="32" spans="3:7">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>230</v>
       </c>
@@ -2921,7 +3040,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="33" spans="3:7">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>230</v>
       </c>
@@ -2938,7 +3057,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="34" spans="3:7">
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>230</v>
       </c>
@@ -2955,7 +3074,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="35" spans="3:7">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>230</v>
       </c>
@@ -2972,7 +3091,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="36" spans="3:7">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>230</v>
       </c>
@@ -2989,7 +3108,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="37" spans="3:7">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>230</v>
       </c>
@@ -3006,7 +3125,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="38" spans="3:7">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>230</v>
       </c>
@@ -3023,7 +3142,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="39" spans="3:7">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>230</v>
       </c>
@@ -3040,7 +3159,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="40" spans="3:7">
+    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>230</v>
       </c>
@@ -3057,7 +3176,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="41" spans="3:7">
+    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>230</v>
       </c>
@@ -3074,7 +3193,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="42" spans="3:7">
+    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>230</v>
       </c>
@@ -3091,7 +3210,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="43" spans="3:7">
+    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>230</v>
       </c>
@@ -3108,7 +3227,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="44" spans="3:7">
+    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>230</v>
       </c>
@@ -3125,7 +3244,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="45" spans="3:7">
+    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>230</v>
       </c>
@@ -3142,7 +3261,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="46" spans="3:7">
+    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>230</v>
       </c>
@@ -3159,7 +3278,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="47" spans="3:7">
+    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>230</v>
       </c>
@@ -3176,7 +3295,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="48" spans="3:7">
+    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>230</v>
       </c>
@@ -3193,7 +3312,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="49" spans="3:7">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>230</v>
       </c>
@@ -3210,7 +3329,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="50" spans="3:7">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>230</v>
       </c>
@@ -3227,7 +3346,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="51" spans="3:7">
+    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>230</v>
       </c>
@@ -3244,7 +3363,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="52" spans="3:7">
+    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>230</v>
       </c>
@@ -3261,7 +3380,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="53" spans="3:7">
+    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>230</v>
       </c>
@@ -3278,7 +3397,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="54" spans="3:7">
+    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>230</v>
       </c>
@@ -3295,7 +3414,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="55" spans="3:7">
+    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>230</v>
       </c>
@@ -3312,7 +3431,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="56" spans="3:7">
+    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>230</v>
       </c>
@@ -3329,7 +3448,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="57" spans="3:7">
+    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>230</v>
       </c>
@@ -3346,7 +3465,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="58" spans="3:7">
+    <row r="58" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>230</v>
       </c>
@@ -3363,7 +3482,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="59" spans="3:7">
+    <row r="59" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>230</v>
       </c>
@@ -3380,7 +3499,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="60" spans="3:7">
+    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>230</v>
       </c>
@@ -3397,7 +3516,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="61" spans="3:7">
+    <row r="61" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>230</v>
       </c>
@@ -3414,7 +3533,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="62" spans="3:7">
+    <row r="62" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>230</v>
       </c>
@@ -3431,7 +3550,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="63" spans="3:7">
+    <row r="63" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>230</v>
       </c>
@@ -3448,7 +3567,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="64" spans="3:7">
+    <row r="64" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>230</v>
       </c>
@@ -3465,7 +3584,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="65" spans="3:7">
+    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>230</v>
       </c>
@@ -3482,7 +3601,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="66" spans="3:7">
+    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>230</v>
       </c>
@@ -3499,7 +3618,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="67" spans="3:7">
+    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>230</v>
       </c>
@@ -3516,7 +3635,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="68" spans="3:7">
+    <row r="68" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>230</v>
       </c>
@@ -3533,7 +3652,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="69" spans="3:7">
+    <row r="69" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>230</v>
       </c>
@@ -3550,7 +3669,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="70" spans="3:7">
+    <row r="70" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>230</v>
       </c>
@@ -3567,7 +3686,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="71" spans="3:7">
+    <row r="71" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>230</v>
       </c>
@@ -3584,7 +3703,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="72" spans="3:7">
+    <row r="72" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>230</v>
       </c>
@@ -3601,7 +3720,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="73" spans="3:7">
+    <row r="73" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>230</v>
       </c>
@@ -3618,7 +3737,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="74" spans="3:7">
+    <row r="74" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>230</v>
       </c>
@@ -3635,7 +3754,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="75" spans="3:7">
+    <row r="75" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>230</v>
       </c>
@@ -3652,7 +3771,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="76" spans="3:7">
+    <row r="76" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>230</v>
       </c>
@@ -3669,7 +3788,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="77" spans="3:7">
+    <row r="77" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>230</v>
       </c>
@@ -3686,7 +3805,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="78" spans="3:7">
+    <row r="78" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>230</v>
       </c>
@@ -3703,7 +3822,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="79" spans="3:7">
+    <row r="79" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>230</v>
       </c>
@@ -3720,7 +3839,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="80" spans="3:7">
+    <row r="80" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>230</v>
       </c>
@@ -3737,7 +3856,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="81" spans="3:7">
+    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>230</v>
       </c>
@@ -3754,7 +3873,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="82" spans="3:7">
+    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>230</v>
       </c>
@@ -3771,7 +3890,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="83" spans="3:7">
+    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>230</v>
       </c>
@@ -3788,7 +3907,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="84" spans="3:7">
+    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>230</v>
       </c>
@@ -3805,7 +3924,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="85" spans="3:7">
+    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>230</v>
       </c>
@@ -3822,7 +3941,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="86" spans="3:7">
+    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>230</v>
       </c>
@@ -3839,7 +3958,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="87" spans="3:7">
+    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>230</v>
       </c>
@@ -3856,7 +3975,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="88" spans="3:7">
+    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>230</v>
       </c>
@@ -3873,7 +3992,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="89" spans="3:7">
+    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>230</v>
       </c>
@@ -3890,7 +4009,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="90" spans="3:7">
+    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>230</v>
       </c>
@@ -3907,7 +4026,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="91" spans="3:7">
+    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>230</v>
       </c>
@@ -3924,7 +4043,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="92" spans="3:7">
+    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>230</v>
       </c>
@@ -3941,7 +4060,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="93" spans="3:7">
+    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>230</v>
       </c>
@@ -3958,7 +4077,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="94" spans="3:7">
+    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>230</v>
       </c>
@@ -3975,7 +4094,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="95" spans="3:7">
+    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>230</v>
       </c>
@@ -3992,7 +4111,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="96" spans="3:7">
+    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>230</v>
       </c>
@@ -4009,7 +4128,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="97" spans="3:7">
+    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>230</v>
       </c>
@@ -4026,7 +4145,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="98" spans="3:7">
+    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>230</v>
       </c>
@@ -4043,7 +4162,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="99" spans="3:7">
+    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>230</v>
       </c>
@@ -4060,7 +4179,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="100" spans="3:7">
+    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>230</v>
       </c>
@@ -4077,7 +4196,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="101" spans="3:7">
+    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>230</v>
       </c>
@@ -4094,7 +4213,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="102" spans="3:7">
+    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>230</v>
       </c>
@@ -4111,7 +4230,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="103" spans="3:7">
+    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>230</v>
       </c>
